--- a/xlsx_checker/public/templates/lab2_template.xlsx
+++ b/xlsx_checker/public/templates/lab2_template.xlsx
@@ -6,7 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист 2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14,61 +15,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
-    <t>Поступление товаров</t>
+    <t>График функции y=sin(x)</t>
   </si>
   <si>
-    <t>№</t>
+    <t>x</t>
   </si>
   <si>
-    <t>Наименование товара</t>
+    <t>y=sin(x)</t>
   </si>
   <si>
-    <t>Дата поступления</t>
+    <t xml:space="preserve">График функции </t>
   </si>
   <si>
-    <t>Количество</t>
-  </si>
-  <si>
-    <t>Цена</t>
-  </si>
-  <si>
-    <t>Стоимость</t>
-  </si>
-  <si>
-    <t>Чайник</t>
-  </si>
-  <si>
-    <t>Микровоновка</t>
-  </si>
-  <si>
-    <t>Пылесос</t>
-  </si>
-  <si>
-    <t>Утюг</t>
-  </si>
-  <si>
-    <t>Холодильник</t>
-  </si>
-  <si>
-    <t>Миксер</t>
-  </si>
-  <si>
-    <t>Телевизор</t>
-  </si>
-  <si>
-    <t>Комбайн</t>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="DD/MM/YY" numFmtId="165"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -118,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -127,9 +95,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,7 +394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,312 +402,290 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="5"/>
-    <col customWidth="1" max="2" min="2" width="21"/>
-    <col customWidth="1" max="3" min="3" width="18"/>
-    <col customWidth="1" max="4" min="4" width="12"/>
-    <col customWidth="1" max="5" min="5" width="12"/>
-    <col customWidth="1" max="6" min="6" width="14"/>
+    <col customWidth="1" max="1" min="1" width="17"/>
+    <col customWidth="1" max="2" min="2" width="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:2">
       <c s="1" r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" r="2" ht="27" spans="1:6">
-      <c s="2" r="A2" t="s">
+    <row r="3" spans="1:2">
+      <c s="2" r="A3" t="s">
         <v>1</v>
       </c>
-      <c s="2" r="B2" t="s">
+      <c s="2" r="B3" t="s">
         <v>2</v>
       </c>
-      <c s="2" r="C2" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c s="3" r="A4" t="n"/>
+      <c s="3" r="B4" t="n"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c s="3" r="A5" t="n"/>
+      <c s="3" r="B5" t="n"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c s="3" r="A6" t="n"/>
+      <c s="3" r="B6" t="n"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c s="3" r="A7" t="n"/>
+      <c s="3" r="B7" t="n"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c s="3" r="A8" t="n"/>
+      <c s="3" r="B8" t="n"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c s="3" r="A9" t="n"/>
+      <c s="3" r="B9" t="n"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c s="3" r="A10" t="n"/>
+      <c s="3" r="B10" t="n"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c s="3" r="A11" t="n"/>
+      <c s="3" r="B11" t="n"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c s="3" r="A12" t="n"/>
+      <c s="3" r="B12" t="n"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c s="3" r="A13" t="n"/>
+      <c s="3" r="B13" t="n"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c s="3" r="A14" t="n"/>
+      <c s="3" r="B14" t="n"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c s="3" r="A15" t="n"/>
+      <c s="3" r="B15" t="n"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c s="3" r="A16" t="n"/>
+      <c s="3" r="B16" t="n"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c s="3" r="A17" t="n"/>
+      <c s="3" r="B17" t="n"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c s="3" r="A18" t="n"/>
+      <c s="3" r="B18" t="n"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c s="3" r="A19" t="n"/>
+      <c s="3" r="B19" t="n"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c s="3" r="A20" t="n"/>
+      <c s="3" r="B20" t="n"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c s="3" r="A21" t="n"/>
+      <c s="3" r="B21" t="n"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c s="3" r="A22" t="n"/>
+      <c s="3" r="B22" t="n"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c s="3" r="A23" t="n"/>
+      <c s="3" r="B23" t="n"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c s="3" r="A24" t="n"/>
+      <c s="3" r="B24" t="n"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c s="3" r="A25" t="n"/>
+      <c s="3" r="B25" t="n"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c s="3" r="A26" t="n"/>
+      <c s="3" r="B26" t="n"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c s="3" r="A27" t="n"/>
+      <c s="3" r="B27" t="n"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c s="3" r="A28" t="n"/>
+      <c s="3" r="B28" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="17"/>
+    <col customWidth="1" max="2" min="2" width="17"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" r="1" ht="22.5" spans="1:2">
+      <c s="1" r="A1" t="s">
         <v>3</v>
       </c>
-      <c s="2" r="D2" t="s">
+    </row>
+    <row customHeight="1" r="2" ht="22.5" spans="1:2"/>
+    <row r="3" spans="1:2">
+      <c s="2" r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c s="2" r="B3" t="s">
         <v>4</v>
       </c>
-      <c s="2" r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c s="2" r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c s="3" r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c s="3" r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c s="4" r="C3" t="n">
-        <v>42578</v>
-      </c>
-      <c s="3" r="D3" t="n">
-        <v>102</v>
-      </c>
-      <c s="3" r="E3" t="n">
-        <v>1200</v>
-      </c>
-      <c s="3" r="F3" t="n"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c s="3" r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c s="3" r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c s="4" r="C4" t="n">
-        <v>42970</v>
-      </c>
-      <c s="3" r="D4" t="n">
-        <v>38</v>
-      </c>
-      <c s="3" r="E4" t="n">
-        <v>4500</v>
-      </c>
-      <c s="3" r="F4" t="n"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c s="3" r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c s="3" r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c s="4" r="C5" t="n">
-        <v>42811</v>
-      </c>
-      <c s="3" r="D5" t="n">
-        <v>25</v>
-      </c>
-      <c s="3" r="E5" t="n">
-        <v>3000</v>
-      </c>
-      <c s="3" r="F5" t="n"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c s="3" r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c s="3" r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c s="4" r="C6" t="n">
-        <v>42809</v>
-      </c>
-      <c s="3" r="D6" t="n">
-        <v>25</v>
-      </c>
-      <c s="3" r="E6" t="n">
-        <v>1540</v>
-      </c>
-      <c s="3" r="F6" t="n"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c s="3" r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c s="3" r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c s="4" r="C7" t="n">
-        <v>42586</v>
-      </c>
-      <c s="3" r="D7" t="n">
-        <v>45</v>
-      </c>
-      <c s="3" r="E7" t="n">
-        <v>500</v>
-      </c>
-      <c s="3" r="F7" t="n"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c s="3" r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c s="3" r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c s="4" r="C8" t="n">
-        <v>42949</v>
-      </c>
-      <c s="3" r="D8" t="n">
-        <v>20</v>
-      </c>
-      <c s="3" r="E8" t="n">
-        <v>2900</v>
-      </c>
-      <c s="3" r="F8" t="n"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c s="3" r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c s="3" r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c s="4" r="C9" t="n">
-        <v>42602</v>
-      </c>
-      <c s="3" r="D9" t="n">
-        <v>15</v>
-      </c>
-      <c s="3" r="E9" t="n">
-        <v>1000</v>
-      </c>
-      <c s="3" r="F9" t="n"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c s="3" r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c s="3" r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c s="4" r="C10" t="n">
-        <v>42493</v>
-      </c>
-      <c s="3" r="D10" t="n">
-        <v>56</v>
-      </c>
-      <c s="3" r="E10" t="n">
-        <v>25000</v>
-      </c>
-      <c s="3" r="F10" t="n"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c s="3" r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c s="3" r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c s="4" r="C11" t="n">
-        <v>42885</v>
-      </c>
-      <c s="3" r="D11" t="n">
-        <v>38</v>
-      </c>
-      <c s="3" r="E11" t="n">
-        <v>3000</v>
-      </c>
-      <c s="3" r="F11" t="n"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c s="3" r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c s="3" r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c s="4" r="C12" t="n">
-        <v>42563</v>
-      </c>
-      <c s="3" r="D12" t="n">
-        <v>70</v>
-      </c>
-      <c s="3" r="E12" t="n">
-        <v>2000</v>
-      </c>
-      <c s="3" r="F12" t="n"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c s="3" r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c s="3" r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c s="4" r="C13" t="n">
-        <v>41700</v>
-      </c>
-      <c s="3" r="D13" t="n">
-        <v>50</v>
-      </c>
-      <c s="3" r="E13" t="n">
-        <v>6000</v>
-      </c>
-      <c s="3" r="F13" t="n"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c s="3" r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c s="3" r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c s="4" r="C14" t="n">
-        <v>42416</v>
-      </c>
-      <c s="3" r="D14" t="n">
-        <v>19</v>
-      </c>
-      <c s="3" r="E14" t="n">
-        <v>12000</v>
-      </c>
-      <c s="3" r="F14" t="n"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c s="3" r="A15" t="n">
-        <v>13</v>
-      </c>
-      <c s="3" r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c s="4" r="C15" t="n">
-        <v>42935</v>
-      </c>
-      <c s="3" r="D15" t="n">
-        <v>100</v>
-      </c>
-      <c s="3" r="E15" t="n">
-        <v>7800</v>
-      </c>
-      <c s="3" r="F15" t="n"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c s="3" r="A16" t="n">
-        <v>14</v>
-      </c>
-      <c s="3" r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c s="4" r="C16" t="n">
-        <v>42950</v>
-      </c>
-      <c s="3" r="D16" t="n">
-        <v>6</v>
-      </c>
-      <c s="3" r="E16" t="n">
-        <v>1500</v>
-      </c>
-      <c s="3" r="F16" t="n"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c s="3" r="A17" t="n">
-        <v>15</v>
-      </c>
-      <c s="3" r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c s="4" r="C17" t="n">
-        <v>42991</v>
-      </c>
-      <c s="3" r="D17" t="n">
-        <v>32</v>
-      </c>
-      <c s="3" r="E17" t="n">
-        <v>4500</v>
-      </c>
-      <c s="3" r="F17" t="n"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c s="3" r="A4" t="n"/>
+      <c s="3" r="B4" t="n"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c s="3" r="A5" t="n"/>
+      <c s="3" r="B5" t="n"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c s="3" r="A6" t="n"/>
+      <c s="3" r="B6" t="n"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c s="3" r="A7" t="n"/>
+      <c s="3" r="B7" t="n"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c s="3" r="A8" t="n"/>
+      <c s="3" r="B8" t="n"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c s="3" r="A9" t="n"/>
+      <c s="3" r="B9" t="n"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c s="3" r="A10" t="n"/>
+      <c s="3" r="B10" t="n"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c s="3" r="A11" t="n"/>
+      <c s="3" r="B11" t="n"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c s="3" r="A12" t="n"/>
+      <c s="3" r="B12" t="n"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c s="3" r="A13" t="n"/>
+      <c s="3" r="B13" t="n"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c s="3" r="A14" t="n"/>
+      <c s="3" r="B14" t="n"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c s="3" r="A15" t="n"/>
+      <c s="3" r="B15" t="n"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c s="3" r="A16" t="n"/>
+      <c s="3" r="B16" t="n"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c s="3" r="A17" t="n"/>
+      <c s="3" r="B17" t="n"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c s="3" r="A18" t="n"/>
+      <c s="3" r="B18" t="n"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c s="3" r="A19" t="n"/>
+      <c s="3" r="B19" t="n"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c s="3" r="A20" t="n"/>
+      <c s="3" r="B20" t="n"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c s="3" r="A21" t="n"/>
+      <c s="3" r="B21" t="n"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c s="3" r="A22" t="n"/>
+      <c s="3" r="B22" t="n"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c s="3" r="A23" t="n"/>
+      <c s="3" r="B23" t="n"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c s="3" r="A24" t="n"/>
+      <c s="3" r="B24" t="n"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c s="3" r="A25" t="n"/>
+      <c s="3" r="B25" t="n"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c s="3" r="A26" t="n"/>
+      <c s="3" r="B26" t="n"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c s="3" r="A27" t="n"/>
+      <c s="3" r="B27" t="n"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c s="3" r="A28" t="n"/>
+      <c s="3" r="B28" t="n"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c s="3" r="A29" t="n"/>
+      <c s="3" r="B29" t="n"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c s="3" r="A30" t="n"/>
+      <c s="3" r="B30" t="n"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c s="3" r="A31" t="n"/>
+      <c s="3" r="B31" t="n"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c s="3" r="A32" t="n"/>
+      <c s="3" r="B32" t="n"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c s="3" r="A33" t="n"/>
+      <c s="3" r="B33" t="n"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c s="3" r="A34" t="n"/>
+      <c s="3" r="B34" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx_checker/public/templates/lab2_template.xlsx
+++ b/xlsx_checker/public/templates/lab2_template.xlsx
@@ -103,6 +103,36 @@
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2171700" cy="571500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,7 +563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,13 +575,13 @@
     <col customWidth="1" max="2" min="2" width="17"/>
   </cols>
   <sheetData>
-    <row customHeight="1" r="1" ht="22.5" spans="1:2">
+    <row customHeight="1" r="1" ht="22.5" spans="1:3">
       <c s="1" r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" r="2" ht="22.5" spans="1:2"/>
-    <row r="3" spans="1:2">
+    <row customHeight="1" r="2" ht="22.5" spans="1:3"/>
+    <row r="3" spans="1:3">
       <c s="2" r="A3" t="s">
         <v>1</v>
       </c>
@@ -559,127 +589,127 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c s="3" r="A4" t="n"/>
       <c s="3" r="B4" t="n"/>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c s="3" r="A5" t="n"/>
       <c s="3" r="B5" t="n"/>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c s="3" r="A6" t="n"/>
       <c s="3" r="B6" t="n"/>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c s="3" r="A7" t="n"/>
       <c s="3" r="B7" t="n"/>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c s="3" r="A8" t="n"/>
       <c s="3" r="B8" t="n"/>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c s="3" r="A9" t="n"/>
       <c s="3" r="B9" t="n"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c s="3" r="A10" t="n"/>
       <c s="3" r="B10" t="n"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c s="3" r="A11" t="n"/>
       <c s="3" r="B11" t="n"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c s="3" r="A12" t="n"/>
       <c s="3" r="B12" t="n"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c s="3" r="A13" t="n"/>
       <c s="3" r="B13" t="n"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c s="3" r="A14" t="n"/>
       <c s="3" r="B14" t="n"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c s="3" r="A15" t="n"/>
       <c s="3" r="B15" t="n"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c s="3" r="A16" t="n"/>
       <c s="3" r="B16" t="n"/>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c s="3" r="A17" t="n"/>
       <c s="3" r="B17" t="n"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c s="3" r="A18" t="n"/>
       <c s="3" r="B18" t="n"/>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c s="3" r="A19" t="n"/>
       <c s="3" r="B19" t="n"/>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c s="3" r="A20" t="n"/>
       <c s="3" r="B20" t="n"/>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c s="3" r="A21" t="n"/>
       <c s="3" r="B21" t="n"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c s="3" r="A22" t="n"/>
       <c s="3" r="B22" t="n"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c s="3" r="A23" t="n"/>
       <c s="3" r="B23" t="n"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c s="3" r="A24" t="n"/>
       <c s="3" r="B24" t="n"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c s="3" r="A25" t="n"/>
       <c s="3" r="B25" t="n"/>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c s="3" r="A26" t="n"/>
       <c s="3" r="B26" t="n"/>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c s="3" r="A27" t="n"/>
       <c s="3" r="B27" t="n"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c s="3" r="A28" t="n"/>
       <c s="3" r="B28" t="n"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c s="3" r="A29" t="n"/>
       <c s="3" r="B29" t="n"/>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c s="3" r="A30" t="n"/>
       <c s="3" r="B30" t="n"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c s="3" r="A31" t="n"/>
       <c s="3" r="B31" t="n"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c s="3" r="A32" t="n"/>
       <c s="3" r="B32" t="n"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:3">
       <c s="3" r="A33" t="n"/>
       <c s="3" r="B33" t="n"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:3">
       <c s="3" r="A34" t="n"/>
       <c s="3" r="B34" t="n"/>
     </row>
@@ -688,5 +718,6 @@
     <mergeCell ref="A1:B2"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>